--- a/nbs/comparison_report_test_data.xlsx
+++ b/nbs/comparison_report_test_data.xlsx
@@ -183,22 +183,22 @@
     <t>z1</t>
   </si>
   <si>
-    <t>col2_string_df1</t>
-  </si>
-  <si>
-    <t>col2_string_df2</t>
-  </si>
-  <si>
-    <t>col3_int_df1</t>
-  </si>
-  <si>
-    <t>col3_int_df2</t>
-  </si>
-  <si>
-    <t>col4_float_df1</t>
-  </si>
-  <si>
-    <t>col4_float_df2</t>
+    <t>col2_string_base</t>
+  </si>
+  <si>
+    <t>col2_string_compare</t>
+  </si>
+  <si>
+    <t>col3_int_base</t>
+  </si>
+  <si>
+    <t>col3_int_compare</t>
+  </si>
+  <si>
+    <t>col4_float_base</t>
+  </si>
+  <si>
+    <t>col4_float_compare</t>
   </si>
   <si>
     <t>g1-goat</t>
@@ -1286,12 +1286,12 @@
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
